--- a/data/second_stage/df_to_rev_coder2.xlsx
+++ b/data/second_stage/df_to_rev_coder2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univmurcia-my.sharepoint.com/personal/ruben_lopez15_um_es/Documents/FPU2018/Tesis/Drafts/Paper 2/Project/data/second_stage/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univmurcia-my.sharepoint.com/personal/rlopez_um_es/Documents/FPU2018/meta-analyses_reproducibility/data/second_stage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="11_B992CDEFBAB13F7EF71284C956EB5B8F4D20E30B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6804C7AB-9469-4BC0-A72D-363ECF580258}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{4D3FAFC8-3BBE-469D-A975-C010400BE288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7632E45F-E877-4729-96BE-BDF022B02194}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="149">
   <si>
     <t>order</t>
   </si>
@@ -445,6 +445,30 @@
   </si>
   <si>
     <t>request_information</t>
+  </si>
+  <si>
+    <t>ma_x</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>Reproduced values rounded to two decimal places match with the original results (reported rounded to two decimal places).</t>
+  </si>
+  <si>
+    <t>Reproduced values rounded to one decimal place match with the original results (reported rounded to one decimal place).</t>
+  </si>
+  <si>
+    <t>No clear reason was found. Labelled as numerical error due to discrepancy in upper confidence limit. This difference (0.029) was considered not relevant .</t>
+  </si>
+  <si>
+    <t>Inverted signs of results.  Can be explained by authors choosing to report absolute values in the main text.</t>
+  </si>
+  <si>
+    <t>No clear reason was found. Labelled as numerical error due to discrepancy in lower confidence limit. This difference (0.023) was considered not relevant.</t>
+  </si>
+  <si>
+    <t>No clear reason was found. Labelled as numerical error due to discrepancy in upper confidence limit. This difference (0.026) was considered not relevant.</t>
   </si>
 </sst>
 </file>
@@ -507,6 +531,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -788,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY19"/>
+  <dimension ref="A1:BA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AY20" sqref="AY20"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BA3" sqref="BA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,7 +827,7 @@
     <col min="27" max="32" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -897,64 +925,70 @@
         <v>31</v>
       </c>
       <c r="AG1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>133</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>134</v>
       </c>
+      <c r="BA1" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="2" spans="1:51" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>13</v>
       </c>
@@ -1024,61 +1058,67 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AG2">
+        <v>42</v>
+      </c>
+      <c r="AH2">
         <v>0.62</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>14</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>-1.077</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>-1.4019999999999999</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>-0.751</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>0.65100000000000002</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>-6.4870000000000001</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>68.787000000000006</v>
       </c>
-      <c r="AO2">
+      <c r="AP2">
         <v>81.100999999999999</v>
       </c>
-      <c r="AP2">
+      <c r="AQ2">
         <v>0</v>
       </c>
-      <c r="AQ2">
+      <c r="AR2">
         <v>1.19266055045873</v>
       </c>
-      <c r="AR2">
+      <c r="AS2">
         <v>-5</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>63</v>
       </c>
       <c r="AU2" t="s">
         <v>63</v>
       </c>
       <c r="AV2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW2" t="s">
         <v>64</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
         <v>65</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
         <v>137</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AZ2" t="s">
         <v>135</v>
       </c>
+      <c r="BA2" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="3" spans="1:51" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20</v>
       </c>
@@ -1151,64 +1191,70 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AG3">
+        <v>64</v>
+      </c>
+      <c r="AH3">
         <v>0.42</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>15</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>-0.48499999999999999</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>-0.69099999999999995</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>-0.27900000000000003</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.41199999999999998</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>-4.6109999999999998</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>59.585999999999999</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>76.504999999999995</v>
       </c>
-      <c r="AP3">
+      <c r="AQ3">
         <v>0</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <v>201.041666666667</v>
       </c>
-      <c r="AR3">
+      <c r="AS3">
         <v>1.90476190476191</v>
       </c>
-      <c r="AS3">
+      <c r="AT3">
         <v>-4.9999999999954499E-3</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>63</v>
       </c>
       <c r="AU3" t="s">
         <v>63</v>
       </c>
       <c r="AV3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW3" t="s">
         <v>64</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AX3" t="s">
         <v>65</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
         <v>136</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AZ3" t="s">
         <v>135</v>
       </c>
+      <c r="BA3" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="4" spans="1:51" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20</v>
       </c>
@@ -1281,64 +1327,70 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AG4">
+        <v>65</v>
+      </c>
+      <c r="AH4">
         <v>0.25</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>10</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>-0.376</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>-0.5</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>-0.251</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>0.248</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>-5.9269999999999996</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>12.832000000000001</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>29.864999999999998</v>
       </c>
-      <c r="AP4">
+      <c r="AQ4">
         <v>0</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
         <v>201.62162162162201</v>
       </c>
-      <c r="AR4">
+      <c r="AS4">
         <v>0.80000000000000104</v>
       </c>
-      <c r="AS4">
+      <c r="AT4">
         <v>-0.16499999999999901</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>63</v>
       </c>
       <c r="AU4" t="s">
         <v>63</v>
       </c>
       <c r="AV4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW4" t="s">
         <v>64</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AX4" t="s">
         <v>65</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AY4" t="s">
         <v>136</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AZ4" t="s">
         <v>135</v>
       </c>
+      <c r="BA4" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="5" spans="1:51" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>31</v>
       </c>
@@ -1417,64 +1469,70 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AG5">
+        <v>86</v>
+      </c>
+      <c r="AH5">
         <v>0.65</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>9</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>0.36399999999999999</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>0.65400000000000003</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>0.222</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>28.975000000000001</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <v>72.39</v>
       </c>
-      <c r="AP5">
+      <c r="AQ5">
         <v>0</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <v>7.5000000000000098</v>
       </c>
-      <c r="AR5">
+      <c r="AS5">
         <v>-0.61538461538461597</v>
       </c>
-      <c r="AS5">
+      <c r="AT5">
         <v>-0.189999999999998</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>86</v>
       </c>
       <c r="AU5" t="s">
         <v>86</v>
       </c>
       <c r="AV5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW5" t="s">
         <v>64</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="AX5" t="s">
         <v>65</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AY5" t="s">
         <v>137</v>
       </c>
-      <c r="AY5" t="s">
+      <c r="AZ5" t="s">
         <v>135</v>
       </c>
+      <c r="BA5" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="6" spans="1:51" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>40</v>
       </c>
@@ -1550,64 +1608,70 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AG6">
+        <v>100</v>
+      </c>
+      <c r="AH6">
         <v>1.8080000000000001</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>5</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>1.4650000000000001</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>0.61799999999999999</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>2.3119999999999998</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>1.694</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>3.391</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>35.494999999999997</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>88.730999999999995</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
         <v>0</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>2.26817878585724</v>
       </c>
-      <c r="AR6">
+      <c r="AS6">
         <v>6.3053097345132798</v>
       </c>
-      <c r="AS6">
+      <c r="AT6">
         <v>-1.7309999999999901</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>63</v>
       </c>
       <c r="AU6" t="s">
         <v>63</v>
       </c>
       <c r="AV6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW6" t="s">
         <v>64</v>
       </c>
-      <c r="AW6" t="s">
+      <c r="AX6" t="s">
         <v>65</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AY6" t="s">
         <v>137</v>
       </c>
-      <c r="AY6" t="s">
+      <c r="AZ6" t="s">
         <v>135</v>
       </c>
+      <c r="BA6" t="s">
+        <v>147</v>
+      </c>
     </row>
-    <row r="7" spans="1:51" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>52</v>
       </c>
@@ -1683,64 +1747,70 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AG7">
+        <v>114</v>
+      </c>
+      <c r="AH7">
         <v>0.4</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>6</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>-0.36199999999999999</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>-0.54900000000000004</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>-0.17599999999999999</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>0.372</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>-3.8180000000000001</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>8.9450000000000003</v>
       </c>
-      <c r="AO7">
+      <c r="AP7">
         <v>44.106000000000002</v>
       </c>
-      <c r="AP7">
+      <c r="AQ7">
         <v>0</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <v>9.5000000000000107</v>
       </c>
-      <c r="AR7">
+      <c r="AS7">
         <v>7.0000000000000098</v>
       </c>
-      <c r="AS7">
+      <c r="AT7">
         <v>-0.106000000000002</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>63</v>
       </c>
       <c r="AU7" t="s">
         <v>63</v>
       </c>
       <c r="AV7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW7" t="s">
         <v>64</v>
       </c>
-      <c r="AW7" t="s">
+      <c r="AX7" t="s">
         <v>65</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AY7" t="s">
         <v>138</v>
       </c>
-      <c r="AY7" t="s">
+      <c r="AZ7" t="s">
         <v>135</v>
       </c>
+      <c r="BA7" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="8" spans="1:51" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>71</v>
       </c>
@@ -1819,64 +1889,70 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AG8">
+        <v>154</v>
+      </c>
+      <c r="AH8">
         <v>0.442</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>55</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>1.8720000000000001</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>1.6379999999999999</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>2.1070000000000002</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>0.46899999999999997</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>15.66</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>199.36199999999999</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <v>72.914000000000001</v>
       </c>
-      <c r="AP8">
+      <c r="AQ8">
         <v>0</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <v>-0.64516129032258096</v>
       </c>
-      <c r="AR8">
+      <c r="AS8">
         <v>-6.1085972850678703</v>
       </c>
-      <c r="AS8">
+      <c r="AT8">
         <v>-0.114000000000004</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>63</v>
       </c>
       <c r="AU8" t="s">
         <v>63</v>
       </c>
       <c r="AV8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW8" t="s">
         <v>64</v>
       </c>
-      <c r="AW8" t="s">
+      <c r="AX8" t="s">
         <v>65</v>
       </c>
-      <c r="AX8" t="s">
+      <c r="AY8" t="s">
         <v>137</v>
       </c>
-      <c r="AY8" t="s">
+      <c r="AZ8" t="s">
         <v>135</v>
       </c>
+      <c r="BA8" t="s">
+        <v>148</v>
+      </c>
     </row>
-    <row r="9" spans="1:51" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>97</v>
       </c>
@@ -1952,61 +2028,64 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AG9">
+        <v>203</v>
+      </c>
+      <c r="AH9">
         <v>0.33</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>23</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>0.56799999999999995</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>0.39300000000000002</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>0.74299999999999999</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>0.35</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>6.359</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>63.034999999999997</v>
       </c>
-      <c r="AO9">
+      <c r="AP9">
         <v>61.594000000000001</v>
       </c>
-      <c r="AP9">
-        <v>2</v>
-      </c>
       <c r="AQ9">
+        <v>2</v>
+      </c>
+      <c r="AR9">
         <v>5.3333333333333401</v>
       </c>
-      <c r="AR9">
+      <c r="AS9">
         <v>-6.0606060606060499</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>63</v>
       </c>
       <c r="AU9" t="s">
         <v>63</v>
       </c>
       <c r="AV9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW9" t="s">
         <v>64</v>
       </c>
-      <c r="AW9" t="s">
+      <c r="AX9" t="s">
         <v>65</v>
       </c>
-      <c r="AX9" t="s">
+      <c r="AY9" t="s">
         <v>139</v>
       </c>
-      <c r="AY9" t="s">
+      <c r="AZ9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:51" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>97</v>
       </c>
@@ -2085,64 +2164,67 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AG10">
+        <v>204</v>
+      </c>
+      <c r="AH10">
         <v>0.11</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>27</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>0.97799999999999998</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>0.752</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>1.204</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>0.45200000000000001</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>8.48</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>94.853999999999999</v>
       </c>
-      <c r="AO10">
+      <c r="AP10">
         <v>75.061999999999998</v>
       </c>
-      <c r="AP10">
+      <c r="AQ10">
         <v>3</v>
       </c>
-      <c r="AQ10">
+      <c r="AR10">
         <v>-4.04255319148937</v>
       </c>
-      <c r="AR10">
+      <c r="AS10">
         <v>-310.90909090909099</v>
       </c>
-      <c r="AS10">
+      <c r="AT10">
         <v>21.858000000000001</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>63</v>
       </c>
       <c r="AU10" t="s">
         <v>63</v>
       </c>
       <c r="AV10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW10" t="s">
         <v>64</v>
       </c>
-      <c r="AW10" t="s">
+      <c r="AX10" t="s">
         <v>65</v>
       </c>
-      <c r="AX10" t="s">
+      <c r="AY10" t="s">
         <v>139</v>
       </c>
-      <c r="AY10" t="s">
+      <c r="AZ10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:51" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>97</v>
       </c>
@@ -2218,61 +2300,64 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AG11">
+        <v>205</v>
+      </c>
+      <c r="AH11">
         <v>0.36</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>9</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>0.27700000000000002</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>0.47299999999999998</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>0.39200000000000002</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>2.7679999999999998</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>6.5380000000000003</v>
       </c>
-      <c r="AO11">
+      <c r="AP11">
         <v>0</v>
       </c>
-      <c r="AP11">
+      <c r="AQ11">
         <v>1</v>
       </c>
-      <c r="AQ11">
+      <c r="AR11">
         <v>18.529411764705898</v>
       </c>
-      <c r="AR11">
+      <c r="AS11">
         <v>-8.8888888888888999</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>63</v>
       </c>
       <c r="AU11" t="s">
         <v>63</v>
       </c>
       <c r="AV11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW11" t="s">
         <v>64</v>
       </c>
-      <c r="AW11" t="s">
+      <c r="AX11" t="s">
         <v>65</v>
       </c>
-      <c r="AX11" t="s">
+      <c r="AY11" t="s">
         <v>139</v>
       </c>
-      <c r="AY11" t="s">
+      <c r="AZ11" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:51" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>97</v>
       </c>
@@ -2348,61 +2433,64 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AG12">
+        <v>206</v>
+      </c>
+      <c r="AH12">
         <v>0.34</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>18</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>0.70399999999999996</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>0.49299999999999999</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>0.91500000000000004</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>0.42199999999999999</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>6.5359999999999996</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>33.499000000000002</v>
       </c>
-      <c r="AO12">
+      <c r="AP12">
         <v>46.56</v>
       </c>
-      <c r="AP12">
+      <c r="AQ12">
         <v>3</v>
       </c>
-      <c r="AQ12">
+      <c r="AR12">
         <v>-8.3076923076922995</v>
       </c>
-      <c r="AR12">
+      <c r="AS12">
         <v>-24.117647058823501</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>63</v>
       </c>
       <c r="AU12" t="s">
         <v>63</v>
       </c>
       <c r="AV12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW12" t="s">
         <v>64</v>
       </c>
-      <c r="AW12" t="s">
+      <c r="AX12" t="s">
         <v>65</v>
       </c>
-      <c r="AX12" t="s">
+      <c r="AY12" t="s">
         <v>139</v>
       </c>
-      <c r="AY12" t="s">
+      <c r="AZ12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:51" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>97</v>
       </c>
@@ -2481,64 +2569,67 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AG13">
+        <v>207</v>
+      </c>
+      <c r="AH13">
         <v>0.39</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>18</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>0.69499999999999995</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>0.44800000000000001</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>0.94199999999999995</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>0.49399999999999999</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>5.508</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>41.539000000000001</v>
       </c>
-      <c r="AO13">
+      <c r="AP13">
         <v>60.984999999999999</v>
       </c>
-      <c r="AP13">
+      <c r="AQ13">
         <v>3</v>
       </c>
-      <c r="AQ13">
+      <c r="AR13">
         <v>-13.934426229508199</v>
       </c>
-      <c r="AR13">
+      <c r="AS13">
         <v>-26.6666666666667</v>
       </c>
-      <c r="AS13">
+      <c r="AT13">
         <v>-3.8849999999999998</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>63</v>
       </c>
       <c r="AU13" t="s">
         <v>63</v>
       </c>
       <c r="AV13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW13" t="s">
         <v>64</v>
       </c>
-      <c r="AW13" t="s">
+      <c r="AX13" t="s">
         <v>65</v>
       </c>
-      <c r="AX13" t="s">
+      <c r="AY13" t="s">
         <v>139</v>
       </c>
-      <c r="AY13" t="s">
+      <c r="AZ13" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:51" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>97</v>
       </c>
@@ -2617,64 +2708,67 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AG14">
+        <v>208</v>
+      </c>
+      <c r="AH14">
         <v>0.47</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>21</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>0.877</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>0.61799999999999999</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>1.137</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>0.51900000000000002</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>6.6210000000000004</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>31.08</v>
       </c>
-      <c r="AO14">
+      <c r="AP14">
         <v>43.631</v>
       </c>
-      <c r="AP14">
-        <v>2</v>
-      </c>
       <c r="AQ14">
+        <v>2</v>
+      </c>
+      <c r="AR14">
         <v>-5.6626506024096397</v>
       </c>
-      <c r="AR14">
+      <c r="AS14">
         <v>-10.4255319148936</v>
       </c>
-      <c r="AS14">
+      <c r="AT14">
         <v>9.3089999999999993</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>63</v>
       </c>
       <c r="AU14" t="s">
         <v>63</v>
       </c>
       <c r="AV14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW14" t="s">
         <v>64</v>
       </c>
-      <c r="AW14" t="s">
+      <c r="AX14" t="s">
         <v>65</v>
       </c>
-      <c r="AX14" t="s">
+      <c r="AY14" t="s">
         <v>139</v>
       </c>
-      <c r="AY14" t="s">
+      <c r="AZ14" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:51" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>97</v>
       </c>
@@ -2750,61 +2844,64 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AG15">
+        <v>209</v>
+      </c>
+      <c r="AH15">
         <v>0.34</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>20</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>0.25</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>0.45800000000000002</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>0.41499999999999998</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>2.3650000000000002</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>25.058</v>
       </c>
-      <c r="AO15">
+      <c r="AP15">
         <v>33.673000000000002</v>
       </c>
-      <c r="AP15">
+      <c r="AQ15">
         <v>3</v>
       </c>
-      <c r="AQ15">
+      <c r="AR15">
         <v>-25</v>
       </c>
-      <c r="AR15">
+      <c r="AS15">
         <v>-22.0588235294118</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>63</v>
       </c>
       <c r="AU15" t="s">
         <v>63</v>
       </c>
       <c r="AV15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW15" t="s">
         <v>64</v>
       </c>
-      <c r="AW15" t="s">
+      <c r="AX15" t="s">
         <v>65</v>
       </c>
-      <c r="AX15" t="s">
+      <c r="AY15" t="s">
         <v>139</v>
       </c>
-      <c r="AY15" t="s">
+      <c r="AZ15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:51" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>97</v>
       </c>
@@ -2883,64 +2980,67 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AG16">
+        <v>210</v>
+      </c>
+      <c r="AH16">
         <v>0.83</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>7</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>0.63500000000000001</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>0.17100000000000001</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>0.92800000000000005</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>2.6840000000000002</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>18.364000000000001</v>
       </c>
-      <c r="AO16">
+      <c r="AP16">
         <v>72.929000000000002</v>
       </c>
-      <c r="AP16">
+      <c r="AQ16">
         <v>3</v>
       </c>
-      <c r="AQ16">
+      <c r="AR16">
         <v>17.5324675324675</v>
       </c>
-      <c r="AR16">
+      <c r="AS16">
         <v>-11.8072289156627</v>
       </c>
-      <c r="AS16">
+      <c r="AT16">
         <v>17.911000000000001</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>63</v>
       </c>
       <c r="AU16" t="s">
         <v>63</v>
       </c>
       <c r="AV16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW16" t="s">
         <v>64</v>
       </c>
-      <c r="AW16" t="s">
+      <c r="AX16" t="s">
         <v>65</v>
       </c>
-      <c r="AX16" t="s">
+      <c r="AY16" t="s">
         <v>139</v>
       </c>
-      <c r="AY16" t="s">
+      <c r="AZ16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:51" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>97</v>
       </c>
@@ -3019,64 +3119,67 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AG17">
+        <v>211</v>
+      </c>
+      <c r="AH17">
         <v>0.72</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>7</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>0.67900000000000005</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>0.24399999999999999</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>1.1140000000000001</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>0.87</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>3.0579999999999998</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>17.462</v>
       </c>
-      <c r="AO17">
+      <c r="AP17">
         <v>70.126999999999995</v>
       </c>
-      <c r="AP17">
+      <c r="AQ17">
         <v>3</v>
       </c>
-      <c r="AQ17">
+      <c r="AR17">
         <v>-6.0937500000000098</v>
       </c>
-      <c r="AR17">
+      <c r="AS17">
         <v>-20.8333333333333</v>
       </c>
-      <c r="AS17">
+      <c r="AT17">
         <v>9.2829999999999995</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>63</v>
       </c>
       <c r="AU17" t="s">
         <v>63</v>
       </c>
       <c r="AV17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW17" t="s">
         <v>64</v>
       </c>
-      <c r="AW17" t="s">
+      <c r="AX17" t="s">
         <v>65</v>
       </c>
-      <c r="AX17" t="s">
+      <c r="AY17" t="s">
         <v>139</v>
       </c>
-      <c r="AY17" t="s">
+      <c r="AZ17" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:51" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>97</v>
       </c>
@@ -3155,64 +3258,67 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AG18">
+        <v>212</v>
+      </c>
+      <c r="AH18">
         <v>0.76</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>7</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>0.90100000000000002</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>0.48399999999999999</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>1.3180000000000001</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>0.83299999999999996</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>4.2370000000000001</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>17.788</v>
       </c>
-      <c r="AO18">
+      <c r="AP18">
         <v>65.655000000000001</v>
       </c>
-      <c r="AP18">
+      <c r="AQ18">
         <v>3</v>
       </c>
-      <c r="AQ18">
+      <c r="AR18">
         <v>4.1489361702127603</v>
       </c>
-      <c r="AR18">
+      <c r="AS18">
         <v>-9.6052631578947292</v>
       </c>
-      <c r="AS18">
+      <c r="AT18">
         <v>23.774999999999999</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>63</v>
       </c>
       <c r="AU18" t="s">
         <v>63</v>
       </c>
       <c r="AV18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW18" t="s">
         <v>64</v>
       </c>
-      <c r="AW18" t="s">
+      <c r="AX18" t="s">
         <v>65</v>
       </c>
-      <c r="AX18" t="s">
+      <c r="AY18" t="s">
         <v>139</v>
       </c>
-      <c r="AY18" t="s">
+      <c r="AZ18" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:51" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>97</v>
       </c>
@@ -3291,65 +3397,68 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AG19">
+        <v>213</v>
+      </c>
+      <c r="AH19">
         <v>1.02</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>7</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>0.64100000000000001</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>-0.40600000000000003</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>1.6870000000000001</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>2.093</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>1.2</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>37.256</v>
       </c>
-      <c r="AO19">
+      <c r="AP19">
         <v>94.903000000000006</v>
       </c>
-      <c r="AP19">
+      <c r="AQ19">
         <v>3</v>
       </c>
-      <c r="AQ19">
+      <c r="AR19">
         <v>-10.5172413793104</v>
       </c>
-      <c r="AR19">
+      <c r="AS19">
         <v>-105.196078431373</v>
       </c>
-      <c r="AS19">
+      <c r="AT19">
         <v>-3.9529999999999998</v>
       </c>
-      <c r="AT19" t="s">
+      <c r="AU19" t="s">
         <v>63</v>
       </c>
-      <c r="AU19" t="s">
+      <c r="AV19" t="s">
         <v>86</v>
-      </c>
-      <c r="AV19" t="s">
-        <v>64</v>
       </c>
       <c r="AW19" t="s">
         <v>64</v>
       </c>
       <c r="AX19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY19" t="s">
         <v>139</v>
       </c>
-      <c r="AY19" t="s">
+      <c r="AZ19" t="s">
         <v>140</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>